--- a/drawPicture/损失1_v2.xlsx
+++ b/drawPicture/损失1_v2.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PythonProject\Coursera-ML-AndrewNg-myNote\drawPicture\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="10728"/>
+    <workbookView windowWidth="27720" windowHeight="12510"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,57 +21,500 @@
     <t>x</t>
   </si>
   <si>
-    <t>y(CNN-VGG)(RGB:158,115,187)</t>
+    <r>
+      <t>y(CNN-L</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)(RGB:85,160,251)</t>
+    </r>
   </si>
   <si>
-    <t>y(CNN-SC-AE)(RGB:133,149,108)</t>
+    <r>
+      <t>y(CNN-L</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>VGG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)(RGB:158,115,187)</t>
+    </r>
   </si>
   <si>
-    <t>y(CDRCNN-L1)(RGB:15,153,178)</t>
+    <r>
+      <t>y(CNN-L</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>AE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)(RGB:133,149,108)</t>
+    </r>
   </si>
   <si>
-    <t>y(CDRCNN-VGG)(RGB:166,83,0)</t>
+    <r>
+      <t>y(CDRCNN-L</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)(RGB:15,153,178)</t>
+    </r>
   </si>
   <si>
-    <t>y(CDRCNN-AE)(RGB:85,0,0)</t>
+    <r>
+      <t>y(CDRCNN-L</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>VGG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)(RGB:166,83,0)</t>
+    </r>
   </si>
   <si>
-    <t>y(CNN-L1)(RGB:85,160,251)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <r>
+      <t>y(CDRCNN-L</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>AE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)(RGB:85,0,0)</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -84,33 +522,318 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
+    <cellStyle name="Title" xfId="39" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
+    <cellStyle name="Comma" xfId="44" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
+    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -234,7 +957,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -255,9 +978,9 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="16200000" scaled="true"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -278,7 +1001,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="16200000" scaled="false"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -348,7 +1071,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -374,7 +1097,7 @@
             <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -397,54 +1120,54 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="4.5546875" customWidth="1"/>
-    <col min="2" max="2" width="30.33203125" customWidth="1"/>
-    <col min="3" max="3" width="30.21875" customWidth="1"/>
-    <col min="4" max="4" width="31.77734375" customWidth="1"/>
-    <col min="5" max="5" width="31" customWidth="1"/>
-    <col min="6" max="6" width="31.109375" customWidth="1"/>
-    <col min="7" max="7" width="26.88671875" customWidth="1"/>
+    <col min="1" max="1" width="4.55238095238095" customWidth="true"/>
+    <col min="2" max="2" width="30.3333333333333" customWidth="true"/>
+    <col min="3" max="3" width="30.2190476190476" customWidth="true"/>
+    <col min="4" max="4" width="31.7809523809524" customWidth="true"/>
+    <col min="5" max="5" width="31" customWidth="true"/>
+    <col min="6" max="6" width="31.1047619047619" customWidth="true"/>
+    <col min="7" max="7" width="26.8857142857143" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -456,2314 +1179,2320 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>75</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>77</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="2">
         <v>79</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="2">
         <v>100</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="2">
         <v>95</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="2">
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <v>67</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>69</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <v>74</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="2">
         <v>78</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="2">
         <v>85</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="2">
         <v>97.5</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <v>66</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>66.5</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="2">
         <v>71</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="2">
         <v>76</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="2">
         <v>84</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="2">
         <v>97</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <v>65</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <v>66.2</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="2">
         <v>70.5</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="2">
         <v>74</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="2">
         <v>78</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="2">
         <v>95</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="2">
         <v>64</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="2">
         <v>68</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="2">
         <v>70</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="2">
         <v>73</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="2">
         <v>80</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="2">
         <v>88</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7">
       <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="2">
         <v>63.8</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="2">
         <v>65</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="2">
         <v>69</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="2">
         <v>72</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="2">
         <v>71</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="2">
         <v>85</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7">
       <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="2">
         <v>63.6</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="2">
         <v>67.5</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="2">
         <v>68.2</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="2">
         <v>71</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="2">
         <v>77</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="2">
         <v>84</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7">
       <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="2">
         <v>63.4</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="2">
         <v>65.5</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="2">
         <v>66.8</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="2">
         <v>70.5</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="2">
         <v>74</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="2">
         <v>82</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7">
       <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="2">
         <v>63.2</v>
       </c>
-      <c r="C11" s="3">
-        <v>66.900000000000006</v>
-      </c>
-      <c r="D11" s="3">
-        <v>70.900000000000006</v>
-      </c>
-      <c r="E11" s="3">
+      <c r="C11" s="2">
+        <v>66.9</v>
+      </c>
+      <c r="D11" s="2">
+        <v>70.9</v>
+      </c>
+      <c r="E11" s="2">
         <v>70</v>
       </c>
-      <c r="F11" s="3">
-        <v>72.900000000000006</v>
-      </c>
-      <c r="G11" s="3">
+      <c r="F11" s="2">
+        <v>72.9</v>
+      </c>
+      <c r="G11" s="2">
         <v>81</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7">
       <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="2">
         <v>63</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="2">
         <v>66.2</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="2">
         <v>66.2</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="2">
         <v>69.5</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="2">
         <v>73</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7">
       <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="2">
         <v>62.8</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="2">
         <v>67</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="2">
         <v>71.5</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="2">
         <v>69</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="2">
         <v>73.5</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13" s="2">
         <v>83</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7">
       <c r="A14" s="2">
         <v>13</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="2">
         <v>62.7</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="2">
         <v>66.8</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="2">
         <v>70.2</v>
       </c>
-      <c r="E14" s="3">
-        <v>68.900000000000006</v>
-      </c>
-      <c r="F14" s="3">
+      <c r="E14" s="2">
+        <v>68.9</v>
+      </c>
+      <c r="F14" s="2">
         <v>72.8</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7">
       <c r="A15" s="2">
         <v>14</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="2">
         <v>62.6</v>
       </c>
-      <c r="C15" s="3">
-        <v>66.900000000000006</v>
-      </c>
-      <c r="D15" s="3">
-        <v>70.900000000000006</v>
-      </c>
-      <c r="E15" s="3">
+      <c r="C15" s="2">
+        <v>66.9</v>
+      </c>
+      <c r="D15" s="2">
+        <v>70.9</v>
+      </c>
+      <c r="E15" s="2">
         <v>68.95</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="2">
         <v>76</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G15" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7">
       <c r="A16" s="2">
         <v>15</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="2">
         <v>62.5</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="2">
         <v>66.5</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="2">
         <v>68.5</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="2">
         <v>68.92</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" s="2">
         <v>72.5</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G16" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7">
       <c r="A17" s="2">
         <v>16</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="2">
         <v>62.4</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="2">
         <v>66.75</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="2">
         <v>67.75</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="2">
         <v>68.89</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="2">
         <v>72.75</v>
       </c>
-      <c r="G17" s="3">
+      <c r="G17" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7">
       <c r="A18" s="2">
         <v>17</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="2">
         <v>62.3</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="2">
         <v>66.66</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="2">
         <v>68.66</v>
       </c>
-      <c r="E18" s="3">
-        <v>69.099999999999994</v>
-      </c>
-      <c r="F18" s="3">
+      <c r="E18" s="2">
+        <v>69.1</v>
+      </c>
+      <c r="F18" s="2">
         <v>72.66</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G18" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7">
       <c r="A19" s="2">
         <v>18</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="2">
         <v>62.2</v>
       </c>
-      <c r="C19" s="3">
-        <v>66.819999999999993</v>
-      </c>
-      <c r="D19" s="3">
-        <v>68.819999999999993</v>
-      </c>
-      <c r="E19" s="3">
-        <v>68.989999999999995</v>
-      </c>
-      <c r="F19" s="3">
-        <v>74.819999999999993</v>
-      </c>
-      <c r="G19" s="3">
-        <v>79.599999999999994</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C19" s="2">
+        <v>66.82</v>
+      </c>
+      <c r="D19" s="2">
+        <v>68.82</v>
+      </c>
+      <c r="E19" s="2">
+        <v>68.99</v>
+      </c>
+      <c r="F19" s="2">
+        <v>74.82</v>
+      </c>
+      <c r="G19" s="2">
+        <v>79.6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="2">
         <v>19</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="2">
         <v>62.1</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="2">
         <v>66.73</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="2">
         <v>68.88</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="2">
         <v>69</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20" s="2">
         <v>72.73</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G20" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7">
       <c r="A21" s="2">
         <v>20</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" s="2">
         <v>62</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="2">
         <v>66.7</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="2">
         <v>68.7</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="2">
         <v>68.87</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="2">
         <v>72</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G21" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7">
       <c r="A22" s="2">
         <v>21</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22" s="2">
         <v>61.99</v>
       </c>
-      <c r="C22" s="3">
-        <v>66.599999999999994</v>
-      </c>
-      <c r="D22" s="3">
-        <v>69.599999999999994</v>
-      </c>
-      <c r="E22" s="3">
-        <v>68.849999999999994</v>
-      </c>
-      <c r="F22" s="3">
+      <c r="C22" s="2">
+        <v>66.6</v>
+      </c>
+      <c r="D22" s="2">
+        <v>69.6</v>
+      </c>
+      <c r="E22" s="2">
+        <v>68.85</v>
+      </c>
+      <c r="F22" s="2">
         <v>71.5</v>
       </c>
-      <c r="G22" s="3">
+      <c r="G22" s="2">
         <v>77</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7">
       <c r="A23" s="2">
         <v>22</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23" s="2">
         <v>61.98</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="2">
         <v>66.5</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="2">
         <v>68.5</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23" s="2">
         <v>68.8</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F23" s="2">
         <v>72.5</v>
       </c>
-      <c r="G23" s="3">
+      <c r="G23" s="2">
         <v>74</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7">
       <c r="A24" s="2">
         <v>23</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B24" s="2">
         <v>61.97</v>
       </c>
-      <c r="C24" s="3">
-        <v>66.400000000000006</v>
-      </c>
-      <c r="D24" s="3">
-        <v>69.400000000000006</v>
-      </c>
-      <c r="E24" s="3">
-        <v>68.760000000000005</v>
-      </c>
-      <c r="F24" s="3">
-        <v>72.900000000000006</v>
-      </c>
-      <c r="G24" s="3">
+      <c r="C24" s="2">
+        <v>66.4</v>
+      </c>
+      <c r="D24" s="2">
+        <v>69.4</v>
+      </c>
+      <c r="E24" s="2">
+        <v>68.76</v>
+      </c>
+      <c r="F24" s="2">
+        <v>72.9</v>
+      </c>
+      <c r="G24" s="2">
         <v>75.5</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7">
       <c r="A25" s="2">
         <v>24</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B25" s="2">
         <v>61.96</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C25" s="2">
         <v>66.3</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D25" s="2">
         <v>68.3</v>
       </c>
-      <c r="E25" s="3">
+      <c r="E25" s="2">
         <v>68.72</v>
       </c>
-      <c r="F25" s="3">
-        <v>73.599999999999994</v>
-      </c>
-      <c r="G25" s="3">
-        <v>75.099999999999994</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F25" s="2">
+        <v>73.6</v>
+      </c>
+      <c r="G25" s="2">
+        <v>75.1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="2">
         <v>25</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B26" s="2">
         <v>61.95</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26" s="2">
         <v>66.2</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="2">
         <v>67.2</v>
       </c>
-      <c r="E26" s="3">
-        <v>68.790000000000006</v>
-      </c>
-      <c r="F26" s="3">
+      <c r="E26" s="2">
+        <v>68.79</v>
+      </c>
+      <c r="F26" s="2">
         <v>76.8</v>
       </c>
-      <c r="G26" s="3">
+      <c r="G26" s="2">
         <v>74.2</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7">
       <c r="A27" s="2">
         <v>26</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B27" s="2">
         <v>61.94</v>
       </c>
-      <c r="C27" s="3">
-        <v>66.099999999999994</v>
-      </c>
-      <c r="D27" s="3">
-        <v>69.900000000000006</v>
-      </c>
-      <c r="E27" s="3">
+      <c r="C27" s="2">
+        <v>66.1</v>
+      </c>
+      <c r="D27" s="2">
+        <v>69.9</v>
+      </c>
+      <c r="E27" s="2">
         <v>68.73</v>
       </c>
-      <c r="F27" s="3">
+      <c r="F27" s="2">
         <v>76.3</v>
       </c>
-      <c r="G27" s="3">
+      <c r="G27" s="2">
         <v>75.2</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7">
       <c r="A28" s="2">
         <v>27</v>
       </c>
-      <c r="B28" s="3">
+      <c r="B28" s="2">
         <v>61.93</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C28" s="2">
         <v>66</v>
       </c>
-      <c r="D28" s="3">
+      <c r="D28" s="2">
         <v>69</v>
       </c>
-      <c r="E28" s="3">
+      <c r="E28" s="2">
         <v>68.7</v>
       </c>
-      <c r="F28" s="3">
-        <v>75.900000000000006</v>
-      </c>
-      <c r="G28" s="3">
+      <c r="F28" s="2">
+        <v>75.9</v>
+      </c>
+      <c r="G28" s="2">
         <v>74</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7">
       <c r="A29" s="2">
         <v>28</v>
       </c>
-      <c r="B29" s="3">
+      <c r="B29" s="2">
         <v>61.92</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C29" s="2">
         <v>65.97</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29" s="2">
         <v>68.97</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E29" s="2">
         <v>68.69</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F29" s="2">
         <v>74.3</v>
       </c>
-      <c r="G29" s="3">
+      <c r="G29" s="2">
         <v>73</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7">
       <c r="A30" s="2">
         <v>29</v>
       </c>
-      <c r="B30" s="3">
+      <c r="B30" s="2">
         <v>61.91</v>
       </c>
-      <c r="C30" s="3">
+      <c r="C30" s="2">
         <v>65.94</v>
       </c>
-      <c r="D30" s="3">
+      <c r="D30" s="2">
         <v>67.94</v>
       </c>
-      <c r="E30" s="3">
+      <c r="E30" s="2">
         <v>68.73</v>
       </c>
-      <c r="F30" s="3">
+      <c r="F30" s="2">
         <v>71.94</v>
       </c>
-      <c r="G30" s="3">
+      <c r="G30" s="2">
         <v>72</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7">
       <c r="A31" s="2">
         <v>30</v>
       </c>
-      <c r="B31" s="3">
+      <c r="B31" s="2">
         <v>61.9</v>
       </c>
-      <c r="C31" s="3">
+      <c r="C31" s="2">
         <v>65.91</v>
       </c>
-      <c r="D31" s="3">
+      <c r="D31" s="2">
         <v>68.91</v>
       </c>
-      <c r="E31" s="3">
-        <v>68.650000000000006</v>
-      </c>
-      <c r="F31" s="3">
-        <v>72.599999999999994</v>
-      </c>
-      <c r="G31" s="3">
+      <c r="E31" s="2">
+        <v>68.65</v>
+      </c>
+      <c r="F31" s="2">
+        <v>72.6</v>
+      </c>
+      <c r="G31" s="2">
         <v>71</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7">
       <c r="A32" s="2">
         <v>31</v>
       </c>
-      <c r="B32" s="3">
+      <c r="B32" s="2">
         <v>61.89</v>
       </c>
-      <c r="C32" s="3">
+      <c r="C32" s="2">
         <v>65.88</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="2">
         <v>67.88</v>
       </c>
-      <c r="E32" s="3">
-        <v>68.680000000000007</v>
-      </c>
-      <c r="F32" s="3">
+      <c r="E32" s="2">
+        <v>68.68</v>
+      </c>
+      <c r="F32" s="2">
         <v>73.2</v>
       </c>
-      <c r="G32" s="3">
+      <c r="G32" s="2">
         <v>71.3</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7">
       <c r="A33" s="2">
         <v>32</v>
       </c>
-      <c r="B33" s="3">
+      <c r="B33" s="2">
         <v>61.88</v>
       </c>
-      <c r="C33" s="3">
-        <v>65.849999999999994</v>
-      </c>
-      <c r="D33" s="3">
+      <c r="C33" s="2">
+        <v>65.85</v>
+      </c>
+      <c r="D33" s="2">
         <v>68.45</v>
       </c>
-      <c r="E33" s="3">
+      <c r="E33" s="2">
         <v>68.7</v>
       </c>
-      <c r="F33" s="3">
-        <v>73.900000000000006</v>
-      </c>
-      <c r="G33" s="3">
-        <v>71.599999999999994</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F33" s="2">
+        <v>73.9</v>
+      </c>
+      <c r="G33" s="2">
+        <v>71.6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="2">
         <v>33</v>
       </c>
-      <c r="B34" s="3">
+      <c r="B34" s="2">
         <v>61.87</v>
       </c>
-      <c r="C34" s="3">
-        <v>65.819999999999993</v>
-      </c>
-      <c r="D34" s="3">
-        <v>67.819999999999993</v>
-      </c>
-      <c r="E34" s="3">
+      <c r="C34" s="2">
+        <v>65.82</v>
+      </c>
+      <c r="D34" s="2">
+        <v>67.82</v>
+      </c>
+      <c r="E34" s="2">
         <v>68.66</v>
       </c>
-      <c r="F34" s="3">
+      <c r="F34" s="2">
         <v>73.5</v>
       </c>
-      <c r="G34" s="3">
+      <c r="G34" s="2">
         <v>72</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7">
       <c r="A35" s="2">
         <v>34</v>
       </c>
-      <c r="B35" s="3">
+      <c r="B35" s="2">
         <v>61.86</v>
       </c>
-      <c r="C35" s="3">
-        <v>65.790000000000006</v>
-      </c>
-      <c r="D35" s="3">
+      <c r="C35" s="2">
+        <v>65.79</v>
+      </c>
+      <c r="D35" s="2">
         <v>68.39</v>
       </c>
-      <c r="E35" s="3">
+      <c r="E35" s="2">
         <v>68.88</v>
       </c>
-      <c r="F35" s="3">
+      <c r="F35" s="2">
         <v>73.3</v>
       </c>
-      <c r="G35" s="3">
-        <v>71.400000000000006</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G35" s="2">
+        <v>71.4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="2">
         <v>35</v>
       </c>
-      <c r="B36" s="3">
+      <c r="B36" s="2">
         <v>61.85</v>
       </c>
-      <c r="C36" s="3">
-        <v>65.760000000000005</v>
-      </c>
-      <c r="D36" s="3">
-        <v>67.760000000000005</v>
-      </c>
-      <c r="E36" s="3">
+      <c r="C36" s="2">
+        <v>65.76</v>
+      </c>
+      <c r="D36" s="2">
+        <v>67.76</v>
+      </c>
+      <c r="E36" s="2">
         <v>68.7</v>
       </c>
-      <c r="F36" s="3">
-        <v>72.599999999999994</v>
-      </c>
-      <c r="G36" s="3">
-        <v>71.099999999999994</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F36" s="2">
+        <v>72.6</v>
+      </c>
+      <c r="G36" s="2">
+        <v>71.1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="2">
         <v>36</v>
       </c>
-      <c r="B37" s="3">
+      <c r="B37" s="2">
         <v>61.84</v>
       </c>
-      <c r="C37" s="3">
+      <c r="C37" s="2">
         <v>65.73</v>
       </c>
-      <c r="D37" s="3">
+      <c r="D37" s="2">
         <v>67.55</v>
       </c>
-      <c r="E37" s="3">
-        <v>68.650000000000006</v>
-      </c>
-      <c r="F37" s="3">
+      <c r="E37" s="2">
+        <v>68.65</v>
+      </c>
+      <c r="F37" s="2">
         <v>72</v>
       </c>
-      <c r="G37" s="3">
+      <c r="G37" s="2">
         <v>70.5</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7">
       <c r="A38" s="2">
         <v>37</v>
       </c>
-      <c r="B38" s="3">
+      <c r="B38" s="2">
         <v>61.83</v>
       </c>
-      <c r="C38" s="3">
+      <c r="C38" s="2">
         <v>65.7</v>
       </c>
-      <c r="D38" s="3">
+      <c r="D38" s="2">
         <v>67.7</v>
       </c>
-      <c r="E38" s="3">
+      <c r="E38" s="2">
         <v>68.69</v>
       </c>
-      <c r="F38" s="3">
+      <c r="F38" s="2">
         <v>71.7</v>
       </c>
-      <c r="G38" s="3">
+      <c r="G38" s="2">
         <v>69.3</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7">
       <c r="A39" s="2">
         <v>38</v>
       </c>
-      <c r="B39" s="3">
+      <c r="B39" s="2">
         <v>61.82</v>
       </c>
-      <c r="C39" s="3">
+      <c r="C39" s="2">
         <v>65.67</v>
       </c>
-      <c r="D39" s="3">
-        <v>67.900000000000006</v>
-      </c>
-      <c r="E39" s="3">
-        <v>68.680000000000007</v>
-      </c>
-      <c r="F39" s="3">
+      <c r="D39" s="2">
+        <v>67.9</v>
+      </c>
+      <c r="E39" s="2">
+        <v>68.68</v>
+      </c>
+      <c r="F39" s="2">
         <v>73.67</v>
       </c>
-      <c r="G39" s="3">
+      <c r="G39" s="2">
         <v>69</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7">
       <c r="A40" s="2">
         <v>39</v>
       </c>
-      <c r="B40" s="3">
+      <c r="B40" s="2">
         <v>61.81</v>
       </c>
-      <c r="C40" s="3">
+      <c r="C40" s="2">
         <v>65.64</v>
       </c>
-      <c r="D40" s="3">
+      <c r="D40" s="2">
         <v>67.64</v>
       </c>
-      <c r="E40" s="3">
+      <c r="E40" s="2">
         <v>68.67</v>
       </c>
-      <c r="F40" s="3">
+      <c r="F40" s="2">
         <v>72.64</v>
       </c>
-      <c r="G40" s="3">
+      <c r="G40" s="2">
         <v>69.8</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7">
       <c r="A41" s="2">
         <v>40</v>
       </c>
-      <c r="B41" s="3">
+      <c r="B41" s="2">
         <v>61.8</v>
       </c>
-      <c r="C41" s="3">
+      <c r="C41" s="2">
         <v>65.61</v>
       </c>
-      <c r="D41" s="3">
-        <v>67.989999999999995</v>
-      </c>
-      <c r="E41" s="3">
-        <v>68.599999999999994</v>
-      </c>
-      <c r="F41" s="3">
+      <c r="D41" s="2">
+        <v>67.99</v>
+      </c>
+      <c r="E41" s="2">
+        <v>68.6</v>
+      </c>
+      <c r="F41" s="2">
         <v>72.61</v>
       </c>
-      <c r="G41" s="3">
+      <c r="G41" s="2">
         <v>69.5</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7">
       <c r="A42" s="2">
         <v>41</v>
       </c>
-      <c r="B42" s="3">
+      <c r="B42" s="2">
         <v>61.79</v>
       </c>
-      <c r="C42" s="3">
+      <c r="C42" s="2">
         <v>65.58</v>
       </c>
-      <c r="D42" s="3">
+      <c r="D42" s="2">
         <v>67.58</v>
       </c>
-      <c r="E42" s="3">
+      <c r="E42" s="2">
         <v>68.59</v>
       </c>
-      <c r="F42" s="3">
+      <c r="F42" s="2">
         <v>71.58</v>
       </c>
-      <c r="G42" s="3">
+      <c r="G42" s="2">
         <v>68</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7">
       <c r="A43" s="2">
         <v>42</v>
       </c>
-      <c r="B43" s="3">
+      <c r="B43" s="2">
         <v>61.78</v>
       </c>
-      <c r="C43" s="3">
+      <c r="C43" s="2">
         <v>65.55</v>
       </c>
-      <c r="D43" s="3">
+      <c r="D43" s="2">
         <v>67.55</v>
       </c>
-      <c r="E43" s="3">
+      <c r="E43" s="2">
         <v>68.63</v>
       </c>
-      <c r="F43" s="3">
+      <c r="F43" s="2">
         <v>71.55</v>
       </c>
-      <c r="G43" s="3">
+      <c r="G43" s="2">
         <v>68.2</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7">
       <c r="A44" s="2">
         <v>43</v>
       </c>
-      <c r="B44" s="3">
+      <c r="B44" s="2">
         <v>61.77</v>
       </c>
-      <c r="C44" s="3">
+      <c r="C44" s="2">
         <v>65.52</v>
       </c>
-      <c r="D44" s="3">
+      <c r="D44" s="2">
         <v>67.52</v>
       </c>
-      <c r="E44" s="3">
+      <c r="E44" s="2">
         <v>68.92</v>
       </c>
-      <c r="F44" s="3">
+      <c r="F44" s="2">
         <v>71.52</v>
       </c>
-      <c r="G44" s="3">
+      <c r="G44" s="2">
         <v>68</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7">
       <c r="A45" s="2">
         <v>44</v>
       </c>
-      <c r="B45" s="3">
+      <c r="B45" s="2">
         <v>61.76</v>
       </c>
-      <c r="C45" s="3">
-        <v>65.489999999999995</v>
-      </c>
-      <c r="D45" s="3">
+      <c r="C45" s="2">
+        <v>65.49</v>
+      </c>
+      <c r="D45" s="2">
         <v>67.89</v>
       </c>
-      <c r="E45" s="3">
+      <c r="E45" s="2">
         <v>68.7</v>
       </c>
-      <c r="F45" s="3">
-        <v>72.489999999999995</v>
-      </c>
-      <c r="G45" s="3">
+      <c r="F45" s="2">
+        <v>72.49</v>
+      </c>
+      <c r="G45" s="2">
         <v>68.3</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7">
       <c r="A46" s="2">
         <v>45</v>
       </c>
-      <c r="B46" s="3">
+      <c r="B46" s="2">
         <v>61.75</v>
       </c>
-      <c r="C46" s="3">
-        <v>65.459999999999994</v>
-      </c>
-      <c r="D46" s="3">
-        <v>67.459999999999994</v>
-      </c>
-      <c r="E46" s="3">
+      <c r="C46" s="2">
+        <v>65.46</v>
+      </c>
+      <c r="D46" s="2">
+        <v>67.46</v>
+      </c>
+      <c r="E46" s="2">
         <v>68.75</v>
       </c>
-      <c r="F46" s="3">
+      <c r="F46" s="2">
         <v>72.66</v>
       </c>
-      <c r="G46" s="3">
+      <c r="G46" s="2">
         <v>68.2</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7">
       <c r="A47" s="2">
         <v>46</v>
       </c>
-      <c r="B47" s="3">
+      <c r="B47" s="2">
         <v>61.74</v>
       </c>
-      <c r="C47" s="3">
-        <v>65.430000000000007</v>
-      </c>
-      <c r="D47" s="3">
+      <c r="C47" s="2">
+        <v>65.43</v>
+      </c>
+      <c r="D47" s="2">
         <v>67.53</v>
       </c>
-      <c r="E47" s="3">
+      <c r="E47" s="2">
         <v>68.73</v>
       </c>
-      <c r="F47" s="3">
-        <v>71.430000000000007</v>
-      </c>
-      <c r="G47" s="3">
+      <c r="F47" s="2">
+        <v>71.43</v>
+      </c>
+      <c r="G47" s="2">
         <v>68.5</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7">
       <c r="A48" s="2">
         <v>47</v>
       </c>
-      <c r="B48" s="3">
+      <c r="B48" s="2">
         <v>61.73</v>
       </c>
-      <c r="C48" s="3">
-        <v>65.400000000000006</v>
-      </c>
-      <c r="D48" s="3">
+      <c r="C48" s="2">
+        <v>65.4</v>
+      </c>
+      <c r="D48" s="2">
         <v>67.55</v>
       </c>
-      <c r="E48" s="3">
+      <c r="E48" s="2">
         <v>68.7</v>
       </c>
-      <c r="F48" s="3">
+      <c r="F48" s="2">
         <v>71.2</v>
       </c>
-      <c r="G48" s="3">
-        <v>68.099999999999994</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G48" s="2">
+        <v>68.1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="2">
         <v>48</v>
       </c>
-      <c r="B49" s="3">
+      <c r="B49" s="2">
         <v>61.72</v>
       </c>
-      <c r="C49" s="3">
+      <c r="C49" s="2">
         <v>65.37</v>
       </c>
-      <c r="D49" s="3">
+      <c r="D49" s="2">
         <v>67.37</v>
       </c>
-      <c r="E49" s="3">
+      <c r="E49" s="2">
         <v>68.73</v>
       </c>
-      <c r="F49" s="3">
+      <c r="F49" s="2">
         <v>70.5</v>
       </c>
-      <c r="G49" s="3">
+      <c r="G49" s="2">
         <v>67.8</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7">
       <c r="A50" s="2">
         <v>49</v>
       </c>
-      <c r="B50" s="3">
+      <c r="B50" s="2">
         <v>61.71</v>
       </c>
-      <c r="C50" s="3">
+      <c r="C50" s="2">
         <v>65.34</v>
       </c>
-      <c r="D50" s="3">
-        <v>67.540000000000006</v>
-      </c>
-      <c r="E50" s="3">
+      <c r="D50" s="2">
+        <v>67.54</v>
+      </c>
+      <c r="E50" s="2">
         <v>68.69</v>
       </c>
-      <c r="F50" s="3">
+      <c r="F50" s="2">
         <v>70.8</v>
       </c>
-      <c r="G50" s="3">
-        <v>67.900000000000006</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G50" s="2">
+        <v>67.9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="2">
         <v>50</v>
       </c>
-      <c r="B51" s="3">
+      <c r="B51" s="2">
         <v>61.7</v>
       </c>
-      <c r="C51" s="3">
+      <c r="C51" s="2">
         <v>65.31</v>
       </c>
-      <c r="D51" s="3">
+      <c r="D51" s="2">
         <v>67.31</v>
       </c>
-      <c r="E51" s="3">
-        <v>68.680000000000007</v>
-      </c>
-      <c r="F51" s="3">
+      <c r="E51" s="2">
+        <v>68.68</v>
+      </c>
+      <c r="F51" s="2">
         <v>71.5</v>
       </c>
-      <c r="G51" s="3">
-        <v>67.599999999999994</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G51" s="2">
+        <v>67.6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="2">
         <v>51</v>
       </c>
-      <c r="B52" s="3">
+      <c r="B52" s="2">
         <v>61.69</v>
       </c>
-      <c r="C52" s="3">
+      <c r="C52" s="2">
         <v>65.28</v>
       </c>
-      <c r="D52" s="3">
+      <c r="D52" s="2">
         <v>67.52</v>
       </c>
-      <c r="E52" s="3">
+      <c r="E52" s="2">
         <v>68.67</v>
       </c>
-      <c r="F52" s="3">
+      <c r="F52" s="2">
         <v>71.28</v>
       </c>
-      <c r="G52" s="3">
+      <c r="G52" s="2">
         <v>67.7</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7">
       <c r="A53" s="2">
         <v>52</v>
       </c>
-      <c r="B53" s="3">
+      <c r="B53" s="2">
         <v>61.68</v>
       </c>
-      <c r="C53" s="3">
+      <c r="C53" s="2">
         <v>65.25</v>
       </c>
-      <c r="D53" s="3">
+      <c r="D53" s="2">
         <v>67.25</v>
       </c>
-      <c r="E53" s="3">
+      <c r="E53" s="2">
         <v>68.8</v>
       </c>
-      <c r="F53" s="3">
+      <c r="F53" s="2">
         <v>71.25</v>
       </c>
-      <c r="G53" s="3">
+      <c r="G53" s="2">
         <v>67.75</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7">
       <c r="A54" s="2">
         <v>53</v>
       </c>
-      <c r="B54" s="3">
+      <c r="B54" s="2">
         <v>61.67</v>
       </c>
-      <c r="C54" s="3">
+      <c r="C54" s="2">
         <v>65.22</v>
       </c>
-      <c r="D54" s="3">
+      <c r="D54" s="2">
         <v>67.22</v>
       </c>
-      <c r="E54" s="3">
+      <c r="E54" s="2">
         <v>68.61</v>
       </c>
-      <c r="F54" s="3">
+      <c r="F54" s="2">
         <v>71.88</v>
       </c>
-      <c r="G54" s="3">
+      <c r="G54" s="2">
         <v>67.8</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7">
       <c r="A55" s="2">
         <v>54</v>
       </c>
-      <c r="B55" s="3">
+      <c r="B55" s="2">
         <v>61.66</v>
       </c>
-      <c r="C55" s="3">
+      <c r="C55" s="2">
         <v>65.19</v>
       </c>
-      <c r="D55" s="3">
+      <c r="D55" s="2">
         <v>67.19</v>
       </c>
-      <c r="E55" s="3">
+      <c r="E55" s="2">
         <v>68.95</v>
       </c>
-      <c r="F55" s="3">
+      <c r="F55" s="2">
         <v>71.63</v>
       </c>
-      <c r="G55" s="3">
+      <c r="G55" s="2">
         <v>67.59</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7">
       <c r="A56" s="2">
         <v>55</v>
       </c>
-      <c r="B56" s="3">
+      <c r="B56" s="2">
         <v>61.65</v>
       </c>
-      <c r="C56" s="3">
+      <c r="C56" s="2">
         <v>65.16</v>
       </c>
-      <c r="D56" s="3">
+      <c r="D56" s="2">
         <v>67.2</v>
       </c>
-      <c r="E56" s="3">
-        <v>68.900000000000006</v>
-      </c>
-      <c r="F56" s="3">
+      <c r="E56" s="2">
+        <v>68.9</v>
+      </c>
+      <c r="F56" s="2">
         <v>71.16</v>
       </c>
-      <c r="G56" s="3">
-        <v>67.430000000000007</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G56" s="2">
+        <v>67.43</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="2">
         <v>56</v>
       </c>
-      <c r="B57" s="3">
+      <c r="B57" s="2">
         <v>61.64</v>
       </c>
-      <c r="C57" s="3">
+      <c r="C57" s="2">
         <v>65.13</v>
       </c>
-      <c r="D57" s="3">
+      <c r="D57" s="2">
         <v>67.13</v>
       </c>
-      <c r="E57" s="3">
+      <c r="E57" s="2">
         <v>68.77</v>
       </c>
-      <c r="F57" s="3">
+      <c r="F57" s="2">
         <v>71.13</v>
       </c>
-      <c r="G57" s="3">
-        <v>67.489999999999995</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G57" s="2">
+        <v>67.49</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="2">
         <v>57</v>
       </c>
-      <c r="B58" s="3">
+      <c r="B58" s="2">
         <v>61.63</v>
       </c>
-      <c r="C58" s="3">
-        <v>65.099999999999994</v>
-      </c>
-      <c r="D58" s="3">
-        <v>67.150000000000006</v>
-      </c>
-      <c r="E58" s="3">
-        <v>68.900000000000006</v>
-      </c>
-      <c r="F58" s="3">
-        <v>71.099999999999994</v>
-      </c>
-      <c r="G58" s="3">
+      <c r="C58" s="2">
+        <v>65.1</v>
+      </c>
+      <c r="D58" s="2">
+        <v>67.15</v>
+      </c>
+      <c r="E58" s="2">
+        <v>68.9</v>
+      </c>
+      <c r="F58" s="2">
+        <v>71.1</v>
+      </c>
+      <c r="G58" s="2">
         <v>67.42</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7">
       <c r="A59" s="2">
         <v>58</v>
       </c>
-      <c r="B59" s="3">
+      <c r="B59" s="2">
         <v>61.62</v>
       </c>
-      <c r="C59" s="3">
+      <c r="C59" s="2">
         <v>65.08</v>
       </c>
-      <c r="D59" s="3">
+      <c r="D59" s="2">
         <v>67.08</v>
       </c>
-      <c r="E59" s="3">
+      <c r="E59" s="2">
         <v>68.69</v>
       </c>
-      <c r="F59" s="3">
+      <c r="F59" s="2">
         <v>71.44</v>
       </c>
-      <c r="G59" s="3">
-        <v>67.430000000000007</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G59" s="2">
+        <v>67.43</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="2">
         <v>59</v>
       </c>
-      <c r="B60" s="3">
+      <c r="B60" s="2">
         <v>61.61</v>
       </c>
-      <c r="C60" s="3">
+      <c r="C60" s="2">
         <v>65.05</v>
       </c>
-      <c r="D60" s="3">
-        <v>67.099999999999994</v>
-      </c>
-      <c r="E60" s="3">
-        <v>68.790000000000006</v>
-      </c>
-      <c r="F60" s="3">
+      <c r="D60" s="2">
+        <v>67.1</v>
+      </c>
+      <c r="E60" s="2">
+        <v>68.79</v>
+      </c>
+      <c r="F60" s="2">
         <v>71.31</v>
       </c>
-      <c r="G60" s="3">
-        <v>67.400000000000006</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G60" s="2">
+        <v>67.4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="2">
         <v>60</v>
       </c>
-      <c r="B61" s="3">
+      <c r="B61" s="2">
         <v>61.6</v>
       </c>
-      <c r="C61" s="3">
+      <c r="C61" s="2">
         <v>65.02</v>
       </c>
-      <c r="D61" s="3">
+      <c r="D61" s="2">
         <v>67.05</v>
       </c>
-      <c r="E61" s="3">
-        <v>68.760000000000005</v>
-      </c>
-      <c r="F61" s="3">
+      <c r="E61" s="2">
+        <v>68.76</v>
+      </c>
+      <c r="F61" s="2">
         <v>71.19</v>
       </c>
-      <c r="G61" s="3">
+      <c r="G61" s="2">
         <v>67.45</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7">
       <c r="A62" s="2">
         <v>61</v>
       </c>
-      <c r="B62" s="3">
+      <c r="B62" s="2">
         <v>61.59</v>
       </c>
-      <c r="C62" s="3">
-        <v>64.989999999999995</v>
-      </c>
-      <c r="D62" s="3">
-        <v>66.989999999999995</v>
-      </c>
-      <c r="E62" s="3">
+      <c r="C62" s="2">
+        <v>64.99</v>
+      </c>
+      <c r="D62" s="2">
+        <v>66.99</v>
+      </c>
+      <c r="E62" s="2">
         <v>68.72</v>
       </c>
-      <c r="F62" s="3">
-        <v>70.989999999999995</v>
-      </c>
-      <c r="G62" s="3">
-        <v>67.430000000000007</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F62" s="2">
+        <v>70.99</v>
+      </c>
+      <c r="G62" s="2">
+        <v>67.43</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="2">
         <v>62</v>
       </c>
-      <c r="B63" s="3">
+      <c r="B63" s="2">
         <v>61.58</v>
       </c>
-      <c r="C63" s="3">
-        <v>64.959999999999994</v>
-      </c>
-      <c r="D63" s="3">
-        <v>66.959999999999994</v>
-      </c>
-      <c r="E63" s="3">
+      <c r="C63" s="2">
+        <v>64.96</v>
+      </c>
+      <c r="D63" s="2">
+        <v>66.96</v>
+      </c>
+      <c r="E63" s="2">
         <v>68.78</v>
       </c>
-      <c r="F63" s="3">
-        <v>70.959999999999994</v>
-      </c>
-      <c r="G63" s="3">
+      <c r="F63" s="2">
+        <v>70.96</v>
+      </c>
+      <c r="G63" s="2">
         <v>67.42</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7">
       <c r="A64" s="2">
         <v>63</v>
       </c>
-      <c r="B64" s="3">
+      <c r="B64" s="2">
         <v>61.57</v>
       </c>
-      <c r="C64" s="3">
-        <v>64.930000000000007</v>
-      </c>
-      <c r="D64" s="3">
-        <v>66.930000000000007</v>
-      </c>
-      <c r="E64" s="3">
-        <v>68.709999999999994</v>
-      </c>
-      <c r="F64" s="3">
-        <v>70.930000000000007</v>
-      </c>
-      <c r="G64" s="3">
-        <v>67.400000000000006</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C64" s="2">
+        <v>64.93</v>
+      </c>
+      <c r="D64" s="2">
+        <v>66.93</v>
+      </c>
+      <c r="E64" s="2">
+        <v>68.71</v>
+      </c>
+      <c r="F64" s="2">
+        <v>70.93</v>
+      </c>
+      <c r="G64" s="2">
+        <v>67.4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="2">
         <v>64</v>
       </c>
-      <c r="B65" s="3">
+      <c r="B65" s="2">
         <v>61.56</v>
       </c>
-      <c r="C65" s="3">
-        <v>64.900000000000006</v>
-      </c>
-      <c r="D65" s="3">
-        <v>66.900000000000006</v>
-      </c>
-      <c r="E65" s="3">
-        <v>68.680000000000007</v>
-      </c>
-      <c r="F65" s="3">
+      <c r="C65" s="2">
+        <v>64.9</v>
+      </c>
+      <c r="D65" s="2">
+        <v>66.9</v>
+      </c>
+      <c r="E65" s="2">
+        <v>68.68</v>
+      </c>
+      <c r="F65" s="2">
         <v>71</v>
       </c>
-      <c r="G65" s="3">
+      <c r="G65" s="2">
         <v>67.39</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7">
       <c r="A66" s="2">
         <v>65</v>
       </c>
-      <c r="B66" s="3">
+      <c r="B66" s="2">
         <v>61.55</v>
       </c>
-      <c r="C66" s="3">
+      <c r="C66" s="2">
         <v>64.87</v>
       </c>
-      <c r="D66" s="3">
+      <c r="D66" s="2">
         <v>66.87</v>
       </c>
-      <c r="E66" s="3">
-        <v>68.650000000000006</v>
-      </c>
-      <c r="F66" s="3">
+      <c r="E66" s="2">
+        <v>68.65</v>
+      </c>
+      <c r="F66" s="2">
         <v>71.39</v>
       </c>
-      <c r="G66" s="3">
+      <c r="G66" s="2">
         <v>67.36</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7">
       <c r="A67" s="2">
         <v>66</v>
       </c>
-      <c r="B67" s="3">
+      <c r="B67" s="2">
         <v>61.54</v>
       </c>
-      <c r="C67" s="3">
+      <c r="C67" s="2">
         <v>64.84</v>
       </c>
-      <c r="D67" s="3">
+      <c r="D67" s="2">
         <v>66.88</v>
       </c>
-      <c r="E67" s="3">
+      <c r="E67" s="2">
         <v>68.69</v>
       </c>
-      <c r="F67" s="3">
+      <c r="F67" s="2">
         <v>70.84</v>
       </c>
-      <c r="G67" s="3">
+      <c r="G67" s="2">
         <v>67.39</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7">
       <c r="A68" s="2">
         <v>67</v>
       </c>
-      <c r="B68" s="3">
+      <c r="B68" s="2">
         <v>61.53</v>
       </c>
-      <c r="C68" s="3">
+      <c r="C68" s="2">
         <v>64.81</v>
       </c>
-      <c r="D68" s="3">
+      <c r="D68" s="2">
         <v>66.81</v>
       </c>
-      <c r="E68" s="3">
+      <c r="E68" s="2">
         <v>68.62</v>
       </c>
-      <c r="F68" s="3">
+      <c r="F68" s="2">
         <v>70.81</v>
       </c>
-      <c r="G68" s="3">
+      <c r="G68" s="2">
         <v>67.36</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7">
       <c r="A69" s="2">
         <v>68</v>
       </c>
-      <c r="B69" s="3">
+      <c r="B69" s="2">
         <v>61.52</v>
       </c>
-      <c r="C69" s="3">
+      <c r="C69" s="2">
         <v>64.78</v>
       </c>
-      <c r="D69" s="3">
+      <c r="D69" s="2">
         <v>66.78</v>
       </c>
-      <c r="E69" s="3">
+      <c r="E69" s="2">
         <v>68.78</v>
       </c>
-      <c r="F69" s="3">
+      <c r="F69" s="2">
         <v>70.75</v>
       </c>
-      <c r="G69" s="3">
-        <v>67.400000000000006</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G69" s="2">
+        <v>67.4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="2">
         <v>69</v>
       </c>
-      <c r="B70" s="3">
+      <c r="B70" s="2">
         <v>61.51</v>
       </c>
-      <c r="C70" s="3">
+      <c r="C70" s="2">
         <v>64.75</v>
       </c>
-      <c r="D70" s="3">
+      <c r="D70" s="2">
         <v>66.75</v>
       </c>
-      <c r="E70" s="3">
-        <v>68.680000000000007</v>
-      </c>
-      <c r="F70" s="3">
-        <v>70.790000000000006</v>
-      </c>
-      <c r="G70" s="3">
+      <c r="E70" s="2">
+        <v>68.68</v>
+      </c>
+      <c r="F70" s="2">
+        <v>70.79</v>
+      </c>
+      <c r="G70" s="2">
         <v>67.37</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7">
       <c r="A71" s="2">
         <v>70</v>
       </c>
-      <c r="B71" s="3">
+      <c r="B71" s="2">
         <v>61.5</v>
       </c>
-      <c r="C71" s="3">
+      <c r="C71" s="2">
         <v>64.72</v>
       </c>
-      <c r="D71" s="3">
+      <c r="D71" s="2">
         <v>66.72</v>
       </c>
-      <c r="E71" s="3">
+      <c r="E71" s="2">
         <v>68.64</v>
       </c>
-      <c r="F71" s="3">
-        <v>70.709999999999994</v>
-      </c>
-      <c r="G71" s="3">
+      <c r="F71" s="2">
+        <v>70.71</v>
+      </c>
+      <c r="G71" s="2">
         <v>67.34</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7">
       <c r="A72" s="2">
         <v>71</v>
       </c>
-      <c r="B72" s="3">
+      <c r="B72" s="2">
         <v>61.49</v>
       </c>
-      <c r="C72" s="3">
+      <c r="C72" s="2">
         <v>64.69</v>
       </c>
-      <c r="D72" s="3">
+      <c r="D72" s="2">
         <v>66.69</v>
       </c>
-      <c r="E72" s="3">
+      <c r="E72" s="2">
         <v>68.55</v>
       </c>
-      <c r="F72" s="3">
+      <c r="F72" s="2">
         <v>70.69</v>
       </c>
-      <c r="G72" s="3">
-        <v>67.319999999999993</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G72" s="2">
+        <v>67.32</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="2">
         <v>72</v>
       </c>
-      <c r="B73" s="3">
+      <c r="B73" s="2">
         <v>61.48</v>
       </c>
-      <c r="C73" s="3">
+      <c r="C73" s="2">
         <v>64.66</v>
       </c>
-      <c r="D73" s="3">
+      <c r="D73" s="2">
         <v>66.66</v>
       </c>
-      <c r="E73" s="3">
+      <c r="E73" s="2">
         <v>68.58</v>
       </c>
-      <c r="F73" s="3">
+      <c r="F73" s="2">
         <v>70.66</v>
       </c>
-      <c r="G73" s="3">
+      <c r="G73" s="2">
         <v>67.3</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7">
       <c r="A74" s="2">
         <v>73</v>
       </c>
-      <c r="B74" s="3">
+      <c r="B74" s="2">
         <v>61.47</v>
       </c>
-      <c r="C74" s="3">
+      <c r="C74" s="2">
         <v>64.63</v>
       </c>
-      <c r="D74" s="3">
+      <c r="D74" s="2">
         <v>66.63</v>
       </c>
-      <c r="E74" s="3">
+      <c r="E74" s="2">
         <v>68.7</v>
       </c>
-      <c r="F74" s="3">
+      <c r="F74" s="2">
         <v>70.88</v>
       </c>
-      <c r="G74" s="3">
+      <c r="G74" s="2">
         <v>67.28</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7">
       <c r="A75" s="2">
         <v>74</v>
       </c>
-      <c r="B75" s="3">
+      <c r="B75" s="2">
         <v>61.46</v>
       </c>
-      <c r="C75" s="3">
-        <v>64.599999999999994</v>
-      </c>
-      <c r="D75" s="3">
-        <v>66.599999999999994</v>
-      </c>
-      <c r="E75" s="3">
+      <c r="C75" s="2">
+        <v>64.6</v>
+      </c>
+      <c r="D75" s="2">
+        <v>66.6</v>
+      </c>
+      <c r="E75" s="2">
         <v>68.66</v>
       </c>
-      <c r="F75" s="3">
-        <v>70.599999999999994</v>
-      </c>
-      <c r="G75" s="3">
+      <c r="F75" s="2">
+        <v>70.6</v>
+      </c>
+      <c r="G75" s="2">
         <v>67.25</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7">
       <c r="A76" s="2">
         <v>75</v>
       </c>
-      <c r="B76" s="3">
+      <c r="B76" s="2">
         <v>61.45</v>
       </c>
-      <c r="C76" s="3">
-        <v>64.569999999999993</v>
-      </c>
-      <c r="D76" s="3">
+      <c r="C76" s="2">
+        <v>64.57</v>
+      </c>
+      <c r="D76" s="2">
         <v>66.62</v>
       </c>
-      <c r="E76" s="3">
+      <c r="E76" s="2">
         <v>68.64</v>
       </c>
-      <c r="F76" s="3">
-        <v>70.569999999999993</v>
-      </c>
-      <c r="G76" s="3">
+      <c r="F76" s="2">
+        <v>70.57</v>
+      </c>
+      <c r="G76" s="2">
         <v>67.23</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7">
       <c r="A77" s="2">
         <v>76</v>
       </c>
-      <c r="B77" s="3">
+      <c r="B77" s="2">
         <v>61.44</v>
       </c>
-      <c r="C77" s="3">
-        <v>64.540000000000006</v>
-      </c>
-      <c r="D77" s="3">
-        <v>66.540000000000006</v>
-      </c>
-      <c r="E77" s="3">
+      <c r="C77" s="2">
+        <v>64.54</v>
+      </c>
+      <c r="D77" s="2">
+        <v>66.54</v>
+      </c>
+      <c r="E77" s="2">
         <v>68.7</v>
       </c>
-      <c r="F77" s="3">
-        <v>70.540000000000006</v>
-      </c>
-      <c r="G77" s="3">
-        <v>67.209999999999994</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F77" s="2">
+        <v>70.54</v>
+      </c>
+      <c r="G77" s="2">
+        <v>67.21</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="2">
         <v>77</v>
       </c>
-      <c r="B78" s="3">
+      <c r="B78" s="2">
         <v>61.43</v>
       </c>
-      <c r="C78" s="3">
-        <v>64.510000000000005</v>
-      </c>
-      <c r="D78" s="3">
-        <v>66.510000000000005</v>
-      </c>
-      <c r="E78" s="3">
-        <v>68.680000000000007</v>
-      </c>
-      <c r="F78" s="3">
-        <v>70.510000000000005</v>
-      </c>
-      <c r="G78" s="3">
+      <c r="C78" s="2">
+        <v>64.51</v>
+      </c>
+      <c r="D78" s="2">
+        <v>66.51</v>
+      </c>
+      <c r="E78" s="2">
+        <v>68.68</v>
+      </c>
+      <c r="F78" s="2">
+        <v>70.51</v>
+      </c>
+      <c r="G78" s="2">
         <v>67.19</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7">
       <c r="A79" s="2">
         <v>78</v>
       </c>
-      <c r="B79" s="3">
+      <c r="B79" s="2">
         <v>61.42</v>
       </c>
-      <c r="C79" s="3">
+      <c r="C79" s="2">
         <v>64.48</v>
       </c>
-      <c r="D79" s="3">
+      <c r="D79" s="2">
         <v>66.48</v>
       </c>
-      <c r="E79" s="3">
+      <c r="E79" s="2">
         <v>68.55</v>
       </c>
-      <c r="F79" s="3">
+      <c r="F79" s="2">
         <v>70.48</v>
       </c>
-      <c r="G79" s="3">
-        <v>67.209999999999994</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G79" s="2">
+        <v>67.21</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="2">
         <v>79</v>
       </c>
-      <c r="B80" s="3">
+      <c r="B80" s="2">
         <v>61.41</v>
       </c>
-      <c r="C80" s="3">
+      <c r="C80" s="2">
         <v>64.45</v>
       </c>
-      <c r="D80" s="3">
+      <c r="D80" s="2">
         <v>66.45</v>
       </c>
-      <c r="E80" s="3">
+      <c r="E80" s="2">
         <v>68.47</v>
       </c>
-      <c r="F80" s="3">
+      <c r="F80" s="2">
         <v>70.45</v>
       </c>
-      <c r="G80" s="3">
-        <v>67.180000000000007</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G80" s="2">
+        <v>67.18</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="2">
         <v>80</v>
       </c>
-      <c r="B81" s="3">
+      <c r="B81" s="2">
         <v>61.4</v>
       </c>
-      <c r="C81" s="3">
+      <c r="C81" s="2">
         <v>64.42</v>
       </c>
-      <c r="D81" s="3">
-        <v>66.459999999999994</v>
-      </c>
-      <c r="E81" s="3">
+      <c r="D81" s="2">
+        <v>66.46</v>
+      </c>
+      <c r="E81" s="2">
         <v>68.58</v>
       </c>
-      <c r="F81" s="3">
+      <c r="F81" s="2">
         <v>70.36</v>
       </c>
-      <c r="G81" s="3">
+      <c r="G81" s="2">
         <v>67.14</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7">
       <c r="A82" s="2">
         <v>81</v>
       </c>
-      <c r="B82" s="3">
+      <c r="B82" s="2">
         <v>61.39</v>
       </c>
-      <c r="C82" s="3">
+      <c r="C82" s="2">
         <v>64.39</v>
       </c>
-      <c r="D82" s="3">
+      <c r="D82" s="2">
         <v>66.39</v>
       </c>
-      <c r="E82" s="3">
+      <c r="E82" s="2">
         <v>68.61</v>
       </c>
-      <c r="F82" s="3">
+      <c r="F82" s="2">
         <v>70.39</v>
       </c>
-      <c r="G82" s="3">
+      <c r="G82" s="2">
         <v>67.12</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7">
       <c r="A83" s="2">
         <v>82</v>
       </c>
-      <c r="B83" s="3">
+      <c r="B83" s="2">
         <v>61.38</v>
       </c>
-      <c r="C83" s="3">
+      <c r="C83" s="2">
         <v>64.36</v>
       </c>
-      <c r="D83" s="3">
+      <c r="D83" s="2">
         <v>66.36</v>
       </c>
-      <c r="E83" s="3">
-        <v>68.599999999999994</v>
-      </c>
-      <c r="F83" s="3">
+      <c r="E83" s="2">
+        <v>68.6</v>
+      </c>
+      <c r="F83" s="2">
         <v>70.36</v>
       </c>
-      <c r="G83" s="3">
-        <v>67.099999999999994</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G83" s="2">
+        <v>67.1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="2">
         <v>83</v>
       </c>
-      <c r="B84" s="3">
+      <c r="B84" s="2">
         <v>61.37</v>
       </c>
-      <c r="C84" s="3">
+      <c r="C84" s="2">
         <v>64.33</v>
       </c>
-      <c r="D84" s="3">
+      <c r="D84" s="2">
         <v>66.33</v>
       </c>
-      <c r="E84" s="3">
+      <c r="E84" s="2">
         <v>68.58</v>
       </c>
-      <c r="F84" s="3">
+      <c r="F84" s="2">
         <v>70.33</v>
       </c>
-      <c r="G84" s="3">
+      <c r="G84" s="2">
         <v>67.09</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7">
       <c r="A85" s="2">
         <v>84</v>
       </c>
-      <c r="B85" s="3">
+      <c r="B85" s="2">
         <v>61.36</v>
       </c>
-      <c r="C85" s="3">
+      <c r="C85" s="2">
         <v>64.3</v>
       </c>
-      <c r="D85" s="3">
+      <c r="D85" s="2">
         <v>66.3</v>
       </c>
-      <c r="E85" s="3">
-        <v>68.540000000000006</v>
-      </c>
-      <c r="F85" s="3">
+      <c r="E85" s="2">
+        <v>68.54</v>
+      </c>
+      <c r="F85" s="2">
         <v>70.3</v>
       </c>
-      <c r="G85" s="3">
+      <c r="G85" s="2">
         <v>67.06</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7">
       <c r="A86" s="2">
         <v>85</v>
       </c>
-      <c r="B86" s="3">
+      <c r="B86" s="2">
         <v>61.35</v>
       </c>
-      <c r="C86" s="3">
+      <c r="C86" s="2">
         <v>64.27</v>
       </c>
-      <c r="D86" s="3">
+      <c r="D86" s="2">
         <v>66.3</v>
       </c>
-      <c r="E86" s="3">
+      <c r="E86" s="2">
         <v>68.56</v>
       </c>
-      <c r="F86" s="3">
+      <c r="F86" s="2">
         <v>70.27</v>
       </c>
-      <c r="G86" s="3">
+      <c r="G86" s="2">
         <v>67.05</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7">
       <c r="A87" s="2">
         <v>86</v>
       </c>
-      <c r="B87" s="3">
+      <c r="B87" s="2">
         <v>61.34</v>
       </c>
-      <c r="C87" s="3">
-        <v>64.239999999999995</v>
-      </c>
-      <c r="D87" s="3">
-        <v>66.239999999999995</v>
-      </c>
-      <c r="E87" s="3">
+      <c r="C87" s="2">
+        <v>64.24</v>
+      </c>
+      <c r="D87" s="2">
+        <v>66.24</v>
+      </c>
+      <c r="E87" s="2">
         <v>68.55</v>
       </c>
-      <c r="F87" s="3">
+      <c r="F87" s="2">
         <v>70.36</v>
       </c>
-      <c r="G87" s="3">
+      <c r="G87" s="2">
         <v>67.02</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7">
       <c r="A88" s="2">
         <v>87</v>
       </c>
-      <c r="B88" s="3">
+      <c r="B88" s="2">
         <v>61.33</v>
       </c>
-      <c r="C88" s="3">
-        <v>64.209999999999994</v>
-      </c>
-      <c r="D88" s="3">
-        <v>66.209999999999994</v>
-      </c>
-      <c r="E88" s="3">
+      <c r="C88" s="2">
+        <v>64.21</v>
+      </c>
+      <c r="D88" s="2">
+        <v>66.21</v>
+      </c>
+      <c r="E88" s="2">
         <v>68.58</v>
       </c>
-      <c r="F88" s="3">
-        <v>70.209999999999994</v>
-      </c>
-      <c r="G88" s="3">
+      <c r="F88" s="2">
+        <v>70.21</v>
+      </c>
+      <c r="G88" s="2">
         <v>67</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7">
       <c r="A89" s="2">
         <v>88</v>
       </c>
-      <c r="B89" s="3">
+      <c r="B89" s="2">
         <v>61.32</v>
       </c>
-      <c r="C89" s="3">
-        <v>64.180000000000007</v>
-      </c>
-      <c r="D89" s="3">
-        <v>66.180000000000007</v>
-      </c>
-      <c r="E89" s="3">
+      <c r="C89" s="2">
+        <v>64.18</v>
+      </c>
+      <c r="D89" s="2">
+        <v>66.18</v>
+      </c>
+      <c r="E89" s="2">
         <v>68.52</v>
       </c>
-      <c r="F89" s="3">
-        <v>70.180000000000007</v>
-      </c>
-      <c r="G89" s="3">
-        <v>66.989999999999995</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F89" s="2">
+        <v>70.18</v>
+      </c>
+      <c r="G89" s="2">
+        <v>66.99</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="2">
         <v>89</v>
       </c>
-      <c r="B90" s="3">
+      <c r="B90" s="2">
         <v>61.31</v>
       </c>
-      <c r="C90" s="3">
-        <v>64.150000000000006</v>
-      </c>
-      <c r="D90" s="3">
-        <v>66.150000000000006</v>
-      </c>
-      <c r="E90" s="3">
+      <c r="C90" s="2">
+        <v>64.15</v>
+      </c>
+      <c r="D90" s="2">
+        <v>66.15</v>
+      </c>
+      <c r="E90" s="2">
         <v>68.5</v>
       </c>
-      <c r="F90" s="3">
-        <v>70.150000000000006</v>
-      </c>
-      <c r="G90" s="3">
+      <c r="F90" s="2">
+        <v>70.15</v>
+      </c>
+      <c r="G90" s="2">
         <v>66.97</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7">
       <c r="A91" s="2">
         <v>90</v>
       </c>
-      <c r="B91" s="3">
+      <c r="B91" s="2">
         <v>61.3</v>
       </c>
-      <c r="C91" s="3">
+      <c r="C91" s="2">
         <v>64.12</v>
       </c>
-      <c r="D91" s="3">
+      <c r="D91" s="2">
         <v>66.12</v>
       </c>
-      <c r="E91" s="3">
+      <c r="E91" s="2">
         <v>68.45</v>
       </c>
-      <c r="F91" s="3">
+      <c r="F91" s="2">
         <v>70.12</v>
       </c>
-      <c r="G91" s="3">
-        <v>66.959999999999994</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G91" s="2">
+        <v>66.96</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="2">
         <v>91</v>
       </c>
-      <c r="B92" s="3">
+      <c r="B92" s="2">
         <v>61.29</v>
       </c>
-      <c r="C92" s="3">
+      <c r="C92" s="2">
         <v>64.09</v>
       </c>
-      <c r="D92" s="3">
-        <v>66.099999999999994</v>
-      </c>
-      <c r="E92" s="3">
+      <c r="D92" s="2">
+        <v>66.1</v>
+      </c>
+      <c r="E92" s="2">
         <v>68.59</v>
       </c>
-      <c r="F92" s="3">
+      <c r="F92" s="2">
         <v>70.09</v>
       </c>
-      <c r="G92" s="3">
+      <c r="G92" s="2">
         <v>66.95</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7">
       <c r="A93" s="2">
         <v>92</v>
       </c>
-      <c r="B93" s="3">
+      <c r="B93" s="2">
         <v>61.28</v>
       </c>
-      <c r="C93" s="3">
+      <c r="C93" s="2">
         <v>64.06</v>
       </c>
-      <c r="D93" s="3">
+      <c r="D93" s="2">
         <v>66.06</v>
       </c>
-      <c r="E93" s="3">
+      <c r="E93" s="2">
         <v>68.56</v>
       </c>
-      <c r="F93" s="3">
+      <c r="F93" s="2">
         <v>70.06</v>
       </c>
-      <c r="G93" s="3">
+      <c r="G93" s="2">
         <v>66.94</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7">
       <c r="A94" s="2">
         <v>93</v>
       </c>
-      <c r="B94" s="3">
+      <c r="B94" s="2">
         <v>61.27</v>
       </c>
-      <c r="C94" s="3">
+      <c r="C94" s="2">
         <v>64.03</v>
       </c>
-      <c r="D94" s="3">
+      <c r="D94" s="2">
         <v>66.03</v>
       </c>
-      <c r="E94" s="3">
-        <v>68.599999999999994</v>
-      </c>
-      <c r="F94" s="3">
+      <c r="E94" s="2">
+        <v>68.6</v>
+      </c>
+      <c r="F94" s="2">
         <v>70.03</v>
       </c>
-      <c r="G94" s="3">
-        <v>66.930000000000007</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G94" s="2">
+        <v>66.93</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="2">
         <v>94</v>
       </c>
-      <c r="B95" s="3">
+      <c r="B95" s="2">
         <v>61.26</v>
       </c>
-      <c r="C95" s="3">
+      <c r="C95" s="2">
         <v>64</v>
       </c>
-      <c r="D95" s="3">
+      <c r="D95" s="2">
         <v>66.03</v>
       </c>
-      <c r="E95" s="3">
+      <c r="E95" s="2">
         <v>68.5</v>
       </c>
-      <c r="F95" s="3">
+      <c r="F95" s="2">
         <v>70.12</v>
       </c>
-      <c r="G95" s="3">
-        <v>66.930000000000007</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G95" s="2">
+        <v>66.93</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="2">
         <v>95</v>
       </c>
-      <c r="B96" s="3">
+      <c r="B96" s="2">
         <v>61.25</v>
       </c>
-      <c r="C96" s="3">
+      <c r="C96" s="2">
         <v>63.97</v>
       </c>
-      <c r="D96" s="3">
+      <c r="D96" s="2">
         <v>65.97</v>
       </c>
-      <c r="E96" s="3">
-        <v>68.150000000000006</v>
-      </c>
-      <c r="F96" s="3">
+      <c r="E96" s="2">
+        <v>68.15</v>
+      </c>
+      <c r="F96" s="2">
         <v>69.97</v>
       </c>
-      <c r="G96" s="3">
+      <c r="G96" s="2">
         <v>66.92</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7">
       <c r="A97" s="2">
         <v>96</v>
       </c>
-      <c r="B97" s="3">
+      <c r="B97" s="2">
         <v>61.24</v>
       </c>
-      <c r="C97" s="3">
+      <c r="C97" s="2">
         <v>63.94</v>
       </c>
-      <c r="D97" s="3">
+      <c r="D97" s="2">
         <v>65.94</v>
       </c>
-      <c r="E97" s="3">
+      <c r="E97" s="2">
         <v>68.19</v>
       </c>
-      <c r="F97" s="3">
+      <c r="F97" s="2">
         <v>69.94</v>
       </c>
-      <c r="G97" s="3">
+      <c r="G97" s="2">
         <v>66.92</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7">
       <c r="A98" s="2">
         <v>97</v>
       </c>
-      <c r="B98" s="3">
+      <c r="B98" s="2">
         <v>61.23</v>
       </c>
-      <c r="C98" s="3">
+      <c r="C98" s="2">
         <v>63.91</v>
       </c>
-      <c r="D98" s="3">
+      <c r="D98" s="2">
         <v>65.91</v>
       </c>
-      <c r="E98" s="3">
-        <v>68.099999999999994</v>
-      </c>
-      <c r="F98" s="3">
+      <c r="E98" s="2">
+        <v>68.1</v>
+      </c>
+      <c r="F98" s="2">
         <v>69.91</v>
       </c>
-      <c r="G98" s="3">
+      <c r="G98" s="2">
         <v>66.91</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7">
       <c r="A99" s="2">
         <v>98</v>
       </c>
-      <c r="B99" s="3">
+      <c r="B99" s="2">
         <v>61.22</v>
       </c>
-      <c r="C99" s="3">
+      <c r="C99" s="2">
         <v>63.88</v>
       </c>
-      <c r="D99" s="3">
+      <c r="D99" s="2">
         <v>65.88</v>
       </c>
-      <c r="E99" s="3">
+      <c r="E99" s="2">
         <v>68</v>
       </c>
-      <c r="F99" s="3">
+      <c r="F99" s="2">
         <v>69.78</v>
       </c>
-      <c r="G99" s="3">
+      <c r="G99" s="2">
         <v>66.91</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7">
       <c r="A100" s="2">
         <v>99</v>
       </c>
-      <c r="B100" s="3">
+      <c r="B100" s="2">
         <v>61.21</v>
       </c>
-      <c r="C100" s="3">
+      <c r="C100" s="2">
         <v>63.85</v>
       </c>
-      <c r="D100" s="3">
-        <v>65.849999999999994</v>
-      </c>
-      <c r="E100" s="3">
+      <c r="D100" s="2">
+        <v>65.85</v>
+      </c>
+      <c r="E100" s="2">
         <v>68.2</v>
       </c>
-      <c r="F100" s="3">
-        <v>69.849999999999994</v>
-      </c>
-      <c r="G100" s="3">
-        <v>66.900000000000006</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F100" s="2">
+        <v>69.85</v>
+      </c>
+      <c r="G100" s="2">
+        <v>66.9</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="2">
         <v>100</v>
       </c>
-      <c r="B101" s="3">
+      <c r="B101" s="2">
         <v>61.2</v>
       </c>
-      <c r="C101" s="3">
+      <c r="C101" s="2">
         <v>63.82</v>
       </c>
-      <c r="D101" s="3">
-        <v>65.819999999999993</v>
-      </c>
-      <c r="E101" s="3">
+      <c r="D101" s="2">
+        <v>65.82</v>
+      </c>
+      <c r="E101" s="2">
         <v>68</v>
       </c>
-      <c r="F101" s="3">
-        <v>69.819999999999993</v>
-      </c>
-      <c r="G101" s="3">
-        <v>66.900000000000006</v>
+      <c r="F101" s="2">
+        <v>69.82</v>
+      </c>
+      <c r="G101" s="2">
+        <v>66.9</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>